--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56801.08237865</v>
+        <v>-58688.66389505284</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215741.234120528</v>
+        <v>211932.5119723191</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>386.448422173096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>100.2132337513732</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.780687729549</v>
+        <v>4.928357422959901</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>79.22210190382104</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>48.85466508935351</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>15.18239726227538</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5402978568768</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>233.1020523603607</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>107.823220172264</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896924</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>157.9093428745248</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>5.56262439642444</v>
       </c>
     </row>
     <row r="14">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>5.562624396424664</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>190.84039615589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>93.98151590854904</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>57.69520250663628</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,10 +2141,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>97.22927301144475</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>114.3307653357163</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>34.56420282848728</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>114.8528101945942</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>31.41965822001986</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>61.81052995517192</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965547</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801228</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>42.20569823125423</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>61.80299520712489</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463091</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593967</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4150,7 +4150,7 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1154.375564375168</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="C2" t="n">
-        <v>785.4130474347567</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="D2" t="n">
-        <v>785.4130474347567</v>
+        <v>1105.408603850877</v>
       </c>
       <c r="E2" t="n">
-        <v>785.4130474347567</v>
+        <v>719.6203512526331</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>308.6344464630255</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.44116270037</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.97540443929</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1540.97540443929</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4389,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.098076393341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2343.463409365404</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2343.463409365404</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2012.400522021833</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1659.631866751719</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>712.793229396055</v>
+        <v>216.719389522771</v>
       </c>
       <c r="C7" t="n">
-        <v>712.793229396055</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V7" t="n">
-        <v>712.793229396055</v>
+        <v>216.719389522771</v>
       </c>
       <c r="W7" t="n">
-        <v>712.793229396055</v>
+        <v>216.719389522771</v>
       </c>
       <c r="X7" t="n">
-        <v>712.793229396055</v>
+        <v>216.719389522771</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.793229396055</v>
+        <v>216.719389522771</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1315.683675137274</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1758.089842927221</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1405.321187657107</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1405.321187657107</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y8" t="n">
-        <v>1405.321187657107</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="9">
@@ -4881,7 +4881,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>344.8407607629293</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>246.2867756623458</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>772.3202985692583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1092.65561809896</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N12" t="n">
-        <v>1897.067196363111</v>
+        <v>1466.525085699305</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>2135.988847001965</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557906</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557906</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347411</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347411</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V13" t="n">
-        <v>1115.626468605467</v>
+        <v>620.2426249169047</v>
       </c>
       <c r="W13" t="n">
-        <v>826.2092985685065</v>
+        <v>330.825454879944</v>
       </c>
       <c r="X13" t="n">
-        <v>598.2197476704893</v>
+        <v>102.8359039819267</v>
       </c>
       <c r="Y13" t="n">
-        <v>598.2197476704893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>904.3916683255102</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.726987855212</v>
+        <v>1357.551052309181</v>
       </c>
       <c r="N15" t="n">
-        <v>2029.138566119363</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1306.148193632761</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1078.158642734744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>857.3660635912138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823779</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5537,22 +5537,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>144.6694351613689</v>
       </c>
       <c r="K18" t="n">
-        <v>222.5746515181233</v>
+        <v>270.0269952192064</v>
       </c>
       <c r="L18" t="n">
-        <v>550.0023305088835</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M18" t="n">
-        <v>1318.370476901345</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>489.1545025205816</v>
+        <v>245.1301850426788</v>
       </c>
       <c r="C19" t="n">
-        <v>489.1545025205816</v>
+        <v>245.1301850426788</v>
       </c>
       <c r="D19" t="n">
-        <v>339.0378631082459</v>
+        <v>245.1301850426788</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488386</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>898.7925182488386</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>898.7925182488386</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>670.8029673508213</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y19" t="n">
-        <v>670.8029673508213</v>
+        <v>245.1301850426788</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,34 +5762,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>246.2867756623458</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>476.2498815306949</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M21" t="n">
-        <v>1244.618027923156</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="N21" t="n">
-        <v>2049.029606187307</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.783020271269</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>195.4284783405332</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1094.302010220232</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>804.8848401832718</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X22" t="n">
-        <v>576.8952892852544</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y22" t="n">
-        <v>576.8952892852544</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1829059167192</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M24" t="n">
-        <v>1357.551052309181</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.071707946799</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.223678370532</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1464.002934367511</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141522</v>
+        <v>985.5330309511297</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045613</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X25" t="n">
-        <v>615.0162575140621</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y25" t="n">
-        <v>394.223678370532</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6224,49 +6224,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>452.5377573864724</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="M27" t="n">
-        <v>772.8730769161741</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.284655180325</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O27" t="n">
-        <v>2246.748416482984</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
-        <v>2429.391894096335</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>444.7802503911738</v>
+        <v>266.153274388193</v>
       </c>
       <c r="C28" t="n">
-        <v>275.8440674632668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>275.8440674632668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>275.8440674632668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>128.9541199653564</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1436.481391815305</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1436.481391815305</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.210845262961</v>
+        <v>958.0114883989235</v>
       </c>
       <c r="W28" t="n">
-        <v>1075.210845262961</v>
+        <v>668.5943183619629</v>
       </c>
       <c r="X28" t="n">
-        <v>847.2212943649436</v>
+        <v>668.5943183619629</v>
       </c>
       <c r="Y28" t="n">
-        <v>626.4287152214134</v>
+        <v>447.8017392184328</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6455,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>442.2730031446704</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>672.2361090130196</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M30" t="n">
-        <v>1440.604255405481</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N30" t="n">
-        <v>1785.124911043099</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>600.4439501541586</v>
+        <v>439.5324299542177</v>
       </c>
       <c r="C31" t="n">
-        <v>487.2686325076223</v>
+        <v>326.3571123076815</v>
       </c>
       <c r="D31" t="n">
-        <v>392.9128583766572</v>
+        <v>232.0013381767165</v>
       </c>
       <c r="E31" t="n">
-        <v>300.7606300756347</v>
+        <v>139.8491098756941</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590947</v>
+        <v>139.8491098756941</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>139.8491098756941</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252996</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1729.539650367012</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1496.17187686194</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1297.248253937424</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1063.591949181834</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>891.3632635651873</v>
+        <v>730.451743365246</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.3315497030278</v>
+        <v>565.4200295030867</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6713,16 +6713,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181232</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L33" t="n">
-        <v>452.5377573864724</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M33" t="n">
-        <v>1220.905903778934</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N33" t="n">
-        <v>1565.426559416552</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O33" t="n">
-        <v>2234.890320719211</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P33" t="n">
-        <v>2417.533798332562</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,67 +6920,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L36" t="n">
-        <v>836.4717212750119</v>
+        <v>424.0331423495622</v>
       </c>
       <c r="M36" t="n">
-        <v>1229.547424576682</v>
+        <v>744.368461879264</v>
       </c>
       <c r="N36" t="n">
-        <v>1559.410052240715</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7090,13 +7090,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181232</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>452.5377573864724</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M39" t="n">
-        <v>772.8730769161741</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N39" t="n">
-        <v>1364.414563824403</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>2033.878325127062</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,19 +7348,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,13 +7421,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>452.5377573864724</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M42" t="n">
-        <v>897.6601296826478</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.071707946799</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229666</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083202</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>1442.339749591389</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N45" t="n">
-        <v>1786.860405229007</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.930027762787</v>
+        <v>2274.070896127047</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,7 +9729,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>267.129972772237</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>456.4711178631241</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>174.0465905668203</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -11394,10 +11394,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>94.22830044930322</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>213.0220289556704</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>95.68260218070098</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>52.45244673802013</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>160.8894508454585</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>49.20468963512442</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>137.8068779881117</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>163.356607155116</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>110.856845194443</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>135.0739102433577</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>48.15382244862088</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897924</v>
+        <v>51.50487350772487</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523589</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>104.5413092227075</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.334310688136611e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="C2" t="n">
         <v>266838.5752058921</v>
       </c>
-      <c r="C2" t="n">
-        <v>266838.5752058922</v>
-      </c>
       <c r="D2" t="n">
-        <v>266838.5752058925</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295109</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="F2" t="n">
+        <v>254168.8888295107</v>
+      </c>
+      <c r="G2" t="n">
         <v>254168.8888295108</v>
       </c>
-      <c r="G2" t="n">
-        <v>254168.8888295109</v>
-      </c>
       <c r="H2" t="n">
-        <v>254168.8888295109</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="I2" t="n">
         <v>254168.8888295107</v>
       </c>
       <c r="J2" t="n">
-        <v>254168.888829511</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="K2" t="n">
         <v>264434.3892744253</v>
@@ -26344,16 +26344,16 @@
         <v>266838.5752058922</v>
       </c>
       <c r="M2" t="n">
+        <v>266838.5752058924</v>
+      </c>
+      <c r="N2" t="n">
         <v>266838.5752058923</v>
       </c>
-      <c r="N2" t="n">
-        <v>266838.5752058922</v>
-      </c>
       <c r="O2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="P2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="P2" t="n">
-        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086701</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758437</v>
+        <v>787.793690575885</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758515</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477234</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="N4" t="n">
-        <v>23206.58093189635</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-545047.5212526808</v>
+        <v>-545047.5212526809</v>
       </c>
       <c r="C6" t="n">
-        <v>44920.35796186366</v>
+        <v>44920.35796186363</v>
       </c>
       <c r="D6" t="n">
-        <v>44920.35796186398</v>
+        <v>44920.35796186357</v>
       </c>
       <c r="E6" t="n">
-        <v>-363766.267286678</v>
+        <v>-363863.72641265</v>
       </c>
       <c r="F6" t="n">
-        <v>161393.7691902182</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="G6" t="n">
-        <v>161393.7691902184</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="H6" t="n">
-        <v>161393.7691902184</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="I6" t="n">
-        <v>161393.7691902182</v>
+        <v>161296.3100642461</v>
       </c>
       <c r="J6" t="n">
-        <v>-15029.45000237442</v>
+        <v>-15126.90912834686</v>
       </c>
       <c r="K6" t="n">
-        <v>104691.1592365847</v>
+        <v>104672.6654986502</v>
       </c>
       <c r="L6" t="n">
-        <v>135573.9816531035</v>
+        <v>135573.9816531036</v>
       </c>
       <c r="M6" t="n">
-        <v>11115.87322013338</v>
+        <v>11115.87322013349</v>
       </c>
       <c r="N6" t="n">
         <v>145916.8884539705</v>
       </c>
       <c r="O6" t="n">
-        <v>145916.8884539705</v>
+        <v>145916.8884539704</v>
       </c>
       <c r="P6" t="n">
-        <v>101754.283151125</v>
+        <v>101754.2831511249</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26744,28 +26744,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108376</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>20.42762356861539</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>313.5709362694218</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866331</v>
+        <v>143.6871155952525</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>95.19361090515049</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>320.8764355891155</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>6.098177473245329</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>236.9552460615526</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>260.7325939141307</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>94.65020610977425</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>48.34766866953119</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31130,7 +31130,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31604,7 +31604,7 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>299.0610273116802</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.284008751033</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>134.1657216706757</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>164.6848965247092</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961197</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>48.67825163038219</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>98.44906376001114</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>73.16654148477312</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>74.49742321029163</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32792,19 +32792,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.0254025558048</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304423</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>347.4294341702148</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.047528046943</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130445</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,25 +33251,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>53.9163126001867</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>267.7425307447073</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33278,19 +33278,19 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,16 +33427,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -33515,19 +33515,19 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>138.0254025558048</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33667,7 +33667,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O35" t="n">
         <v>562.4526372540886</v>
@@ -33734,16 +33734,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>73.4751351232004</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813461</v>
@@ -33758,7 +33758,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33977,25 +33977,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>351.8516207003249</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>249.5159911824348</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34211,34 +34211,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>126.0475280469431</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>147.3268674777244</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34378,7 +34378,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
@@ -34448,22 +34448,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>409.4103115654726</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>87.71167780314289</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>531.3469928352652</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>481.7723699766399</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206059</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>457.7367514986573</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>415.9509713569943</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>47.93166030412434</v>
       </c>
       <c r="K18" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>330.7350292835961</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>421.1672037449933</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>258.9857844358986</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.3113680793898</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>124.5337283277925</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>579.7153996937998</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.1430416967706</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>180.5401106384063</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>500.0284962682923</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
@@ -36926,13 +36926,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043166</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>325.1294057797907</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>208.1209162056324</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>35.49221078694608</v>
       </c>
       <c r="M36" t="n">
-        <v>397.046164951182</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>251.2660748322851</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37625,25 +37625,25 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>584.1375862239099</v>
       </c>
       <c r="M39" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>597.5166534426551</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>449.6185578749247</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>495.3275297379446</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>660.6763863977577</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>272.2000390287498</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
